--- a/DDAf_2024_Tableau_annexe_Tab29.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab29.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D19AA9BD-AE8A-44D9-B22C-C10129099526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{894582CF-3B6C-4780-9BD4-C552055613AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D9B4F856-AEFD-4849-BFFF-AAAE676A3A33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6C1FADF-ED05-4D3D-AD52-8C84C8CF5425}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab29" sheetId="1" r:id="rId1"/>
@@ -1429,20 +1429,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9642401D-06BF-447A-A981-80479B1ED431}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E357880-37EE-44FE-953B-9F2C066C07FB}">
   <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1467,7 +1467,7 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:22" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>-32.826430000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>5.8702100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0.81437000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>30</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>-0.69033999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>-2.4641899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>-52.752400000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>-2.2340300000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>38</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>38.648479999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>40</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>-28.74118</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>42</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>-13.23419</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>44</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>-87.609700000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>-2.0458599999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>48</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>-10.2058</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>50</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>-1.5465500000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>52</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>-6.5451499999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>54</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>-25.06006</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>56</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>-19.92587</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>-14.56836</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>60</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>-12.656219999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>62</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>-0.36066999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>44</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>-92.914540000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>-6.4409999999999995E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>67</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>-2.0976900000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>69</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>-1.53352</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>71</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>-32.242049999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>73</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>-20.00534</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>75</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>-7.1256199999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>77</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>21.901260000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>79</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>-5.1870799999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>81</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>-1.3261099999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>83</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>85</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>-1.74702</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>87</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>-85.034480000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>89</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>-30.346990000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>91</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>-17.37473</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>44</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>-182.18378000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>94</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>55.113579999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>96</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>-168.119</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>98</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>141.14699999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>100</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>-10.356339999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>102</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>-77.822590000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>104</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>-56.45599</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>44</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>-116.49334</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>107</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>-5.48536</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>109</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>-6.5879799999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>111</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>-3.0194700000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>113</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>-12.31808</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>115</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>-1.0525899999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>117</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>-27.07526</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>119</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>-0.98758000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>121</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>-0.38773999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>123</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>-0.57669000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>125</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>-7.5258200000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>127</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>-9.2858699999999992</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>129</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>-82.532179999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>131</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>-12.556100000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>133</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>-1.6240300000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>135</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>-1.10233</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="29" t="s">
         <v>137</v>
@@ -5545,7 +5545,7 @@
         <v>-172.11707999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="46"/>
       <c r="B62" s="47" t="s">
         <v>138</v>
@@ -5611,7 +5611,7 @@
         <v>-651.31844000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="46"/>
       <c r="B63" s="51" t="s">
         <v>139</v>
@@ -5677,7 +5677,7 @@
         <v>-3279.1544199999998</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="55"/>
       <c r="B64" s="56" t="s">
         <v>140</v>
@@ -5743,7 +5743,7 @@
         <v>-1626.68688</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="55"/>
       <c r="B65" s="51" t="s">
         <v>141</v>
@@ -5809,7 +5809,7 @@
         <v>476.98417999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55"/>
       <c r="B66" s="63" t="s">
         <v>142</v>
@@ -5875,7 +5875,7 @@
         <v>-3930.4728599999999</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="55"/>
       <c r="B67" s="51" t="s">
         <v>143</v>
@@ -5941,7 +5941,7 @@
         <v>-299.11468000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="55"/>
       <c r="B68" s="51" t="s">
         <v>144</v>
@@ -6007,7 +6007,7 @@
         <v>-436.94963999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="55"/>
       <c r="B69" s="51" t="s">
         <v>145</v>
@@ -6073,7 +6073,7 @@
         <v>-96.632890000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="55"/>
       <c r="B70" s="51" t="s">
         <v>146</v>
@@ -6139,7 +6139,7 @@
         <v>-130.92805000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="55"/>
       <c r="B71" s="51" t="s">
         <v>147</v>
@@ -6205,7 +6205,7 @@
         <v>-172.11707999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="55"/>
       <c r="B72" s="51" t="s">
         <v>148</v>
@@ -6271,7 +6271,7 @@
         <v>-158.50130999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="55"/>
       <c r="B73" s="51" t="s">
         <v>149</v>
@@ -6337,7 +6337,7 @@
         <v>-124.49744</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="55"/>
       <c r="B74" s="51" t="s">
         <v>149</v>
@@ -6403,7 +6403,7 @@
         <v>51.625660000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55"/>
       <c r="B75" s="51" t="s">
         <v>150</v>
@@ -6469,7 +6469,7 @@
         <v>-89.346710000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="55"/>
       <c r="B76" s="67" t="s">
         <v>151</v>
@@ -6535,7 +6535,7 @@
         <v>278.52048000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="55"/>
       <c r="B77" s="51" t="s">
         <v>152</v>
@@ -6601,7 +6601,7 @@
         <v>-776.94677999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="55"/>
       <c r="B78" s="51" t="s">
         <v>152</v>
@@ -6667,7 +6667,7 @@
         <v>-432.13076999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55"/>
       <c r="B79" s="63" t="s">
         <v>153</v>
@@ -6733,7 +6733,7 @@
         <v>-6746.9539500000001</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="55"/>
       <c r="B80" s="51" t="s">
         <v>154</v>
@@ -6799,7 +6799,7 @@
         <v>89.481530000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="55"/>
       <c r="B81" s="51" t="s">
         <v>155</v>
@@ -6865,7 +6865,7 @@
         <v>3574.48326</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="55"/>
       <c r="B82" s="51" t="s">
         <v>156</v>
@@ -6931,7 +6931,7 @@
         <v>-740.79997000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55"/>
       <c r="B83" s="51" t="s">
         <v>157</v>
@@ -6997,7 +6997,7 @@
         <v>-6853.6376799999998</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="55"/>
       <c r="B84" s="67" t="s">
         <v>158</v>
@@ -7063,7 +7063,7 @@
         <v>-263.66757000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="55"/>
       <c r="B85" s="71" t="s">
         <v>159</v>
@@ -7129,7 +7129,7 @@
         <v>-0.95199999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="55"/>
       <c r="B86" s="51" t="s">
         <v>160</v>
@@ -7195,7 +7195,7 @@
         <v>-564.43309999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="55"/>
       <c r="B87" s="51" t="s">
         <v>161</v>
@@ -7261,7 +7261,7 @@
         <v>-1278.4572800000001</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="55"/>
       <c r="B88" s="51" t="s">
         <v>162</v>
@@ -7327,7 +7327,7 @@
         <v>178.10834</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="55"/>
       <c r="B89" s="51" t="s">
         <v>163</v>
@@ -7393,7 +7393,7 @@
         <v>-214.81954999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55"/>
       <c r="B90" s="63" t="s">
         <v>164</v>
@@ -7459,7 +7459,7 @@
         <v>-1889.5027</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="55"/>
       <c r="B91" s="51" t="s">
         <v>165</v>
@@ -7525,7 +7525,7 @@
         <v>-388.18065999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="55"/>
       <c r="B92" s="51" t="s">
         <v>166</v>
@@ -7591,7 +7591,7 @@
         <v>-94.359049999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="55"/>
       <c r="B93" s="51" t="s">
         <v>167</v>
@@ -7657,7 +7657,7 @@
         <v>16.74286</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="55"/>
       <c r="B94" s="51" t="s">
         <v>168</v>
@@ -7723,7 +7723,7 @@
         <v>732.54774999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="55"/>
       <c r="B95" s="51" t="s">
         <v>169</v>
@@ -7789,7 +7789,7 @@
         <v>-128.53343000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55"/>
       <c r="B96" s="51" t="s">
         <v>170</v>
@@ -7855,7 +7855,7 @@
         <v>-193.32218</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="55"/>
       <c r="B97" s="67" t="s">
         <v>171</v>
@@ -7921,7 +7921,7 @@
         <v>-245.56838999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55"/>
       <c r="B98" s="63" t="s">
         <v>172</v>
@@ -7987,7 +7987,7 @@
         <v>17.601220000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="72"/>
       <c r="B99" s="73"/>
       <c r="C99" s="53"/>
@@ -8011,7 +8011,7 @@
       <c r="U99" s="53"/>
       <c r="V99" s="53"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>173</v>
       </c>
@@ -8036,7 +8036,7 @@
       <c r="U100" s="74"/>
       <c r="V100" s="74"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>174</v>
       </c>
@@ -8061,7 +8061,7 @@
       <c r="U101" s="74"/>
       <c r="V101" s="74"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>175</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="U102" s="74"/>
       <c r="V102" s="74"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>176</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="U103" s="74"/>
       <c r="V103" s="74"/>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>177</v>
       </c>
@@ -8136,7 +8136,7 @@
       <c r="U104" s="74"/>
       <c r="V104" s="74"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C105" s="74"/>
       <c r="D105" s="74"/>
       <c r="E105" s="74"/>
@@ -8158,7 +8158,7 @@
       <c r="U105" s="74"/>
       <c r="V105" s="74"/>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
@@ -8181,7 +8181,7 @@
       <c r="U106" s="74"/>
       <c r="V106" s="74"/>
     </row>
-    <row r="107" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="76" t="s">
         <v>178</v>
       </c>
@@ -8206,7 +8206,7 @@
       <c r="U107" s="74"/>
       <c r="V107" s="74"/>
     </row>
-    <row r="108" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="76"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
@@ -8229,7 +8229,7 @@
       <c r="U108" s="74"/>
       <c r="V108" s="74"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>180</v>
       </c>
@@ -8254,7 +8254,7 @@
       <c r="U109" s="74"/>
       <c r="V109" s="74"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>181</v>
       </c>
@@ -8279,7 +8279,7 @@
       <c r="U110" s="74"/>
       <c r="V110" s="74"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B111" s="78" t="s">
         <v>182</v>
       </c>
@@ -8304,7 +8304,7 @@
       <c r="U111" s="74"/>
       <c r="V111" s="74"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>179</v>
       </c>
@@ -8329,7 +8329,7 @@
       <c r="U112" s="74"/>
       <c r="V112" s="74"/>
     </row>
-    <row r="113" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="74"/>
       <c r="D113" s="74"/>
@@ -8352,7 +8352,7 @@
       <c r="U113" s="74"/>
       <c r="V113" s="74"/>
     </row>
-    <row r="114" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="74"/>
       <c r="D114" s="74"/>
@@ -8377,11 +8377,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{3035F51F-3E51-4F3C-A2DC-440D0762EC5B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{929A0652-1052-4253-9E17-55D3B1BEE3EF}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{95F2BFC2-9A59-44A0-A8BC-787E63205E6F}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{49DEEDF1-C7FD-4A1C-8709-3D2441FB427C}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{3058B91E-2067-434E-AD88-E9796C8469AB}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9828E2B6-39E1-4D91-8201-5883A78C7B79}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{3D6227CE-0E27-4DD3-A3B6-6A6AEF40AE76}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{EEBF81CF-77CE-4FFA-9FD1-43C425BD31F2}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{289A2833-F50A-4697-9F92-AC99353D3447}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{5CA8D1B3-AA87-4B42-BD11-D3045F10BAD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab29.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A10C09D9-FFBA-4DD6-9EF6-CC565E6E0861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC36B712-5FCE-444B-AC9C-6079F597E1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{73CDC268-7CBA-4F04-A36A-30A062B32ACE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA12AE10-D592-45FB-B78B-0447A4D60163}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab29" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="185">
   <si>
     <t>Tableau 29 : Richesse nationale</t>
   </si>
@@ -491,13 +491,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -935,7 +941,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1178,20 +1184,29 @@
     <xf numFmtId="37" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1521,7 +1536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53F3B51-B666-409A-A9C5-C7DFF6652827}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC618503-B02F-48A5-8C20-F97FAC13AA4F}">
   <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1530,7 +1545,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="93" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="96" bestFit="1" customWidth="1"/>
     <col min="4" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5969,7 +5984,7 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="67"/>
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="82" t="s">
         <v>143</v>
       </c>
       <c r="C67" s="73">
@@ -6035,7 +6050,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="67"/>
-      <c r="B68" s="62" t="s">
+      <c r="B68" s="82" t="s">
         <v>144</v>
       </c>
       <c r="C68" s="73">
@@ -6101,7 +6116,7 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="67"/>
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="82" t="s">
         <v>145</v>
       </c>
       <c r="C69" s="73">
@@ -6167,7 +6182,7 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="67"/>
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="82" t="s">
         <v>146</v>
       </c>
       <c r="C70" s="73">
@@ -6233,7 +6248,7 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="67"/>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="82" t="s">
         <v>147</v>
       </c>
       <c r="C71" s="73">
@@ -6299,7 +6314,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="67"/>
-      <c r="B72" s="62" t="s">
+      <c r="B72" s="82" t="s">
         <v>148</v>
       </c>
       <c r="C72" s="73">
@@ -6365,7 +6380,7 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="67"/>
-      <c r="B73" s="62" t="s">
+      <c r="B73" s="82" t="s">
         <v>149</v>
       </c>
       <c r="C73" s="73">
@@ -6431,8 +6446,8 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="67"/>
-      <c r="B74" s="62" t="s">
-        <v>149</v>
+      <c r="B74" s="82" t="s">
+        <v>150</v>
       </c>
       <c r="C74" s="73">
         <v>1522.416278336</v>
@@ -6497,8 +6512,8 @@
     </row>
     <row r="75" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="67"/>
-      <c r="B75" s="62" t="s">
-        <v>150</v>
+      <c r="B75" s="82" t="s">
+        <v>151</v>
       </c>
       <c r="C75" s="63">
         <v>198.319182686</v>
@@ -6563,74 +6578,74 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="67"/>
-      <c r="B76" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="83">
+      <c r="B76" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="84">
         <v>35750.474999999999</v>
       </c>
-      <c r="D76" s="83">
+      <c r="D76" s="84">
         <v>10121.558315549</v>
       </c>
-      <c r="E76" s="84">
+      <c r="E76" s="85">
         <v>22011.491000000002</v>
       </c>
-      <c r="F76" s="84">
+      <c r="F76" s="85">
         <v>3980.1077981904</v>
       </c>
-      <c r="G76" s="85">
+      <c r="G76" s="86">
         <v>278.52048000000002</v>
       </c>
-      <c r="H76" s="84">
+      <c r="H76" s="85">
         <v>3012.4063658383998</v>
       </c>
-      <c r="I76" s="83">
+      <c r="I76" s="84">
         <v>472.01363616460998</v>
       </c>
-      <c r="J76" s="84">
+      <c r="J76" s="85">
         <v>215.86386273151999</v>
       </c>
-      <c r="K76" s="84">
+      <c r="K76" s="85">
         <v>155.90374486798001</v>
       </c>
-      <c r="L76" s="84">
+      <c r="L76" s="85">
         <v>59.318087663409997</v>
       </c>
-      <c r="M76" s="84">
+      <c r="M76" s="85">
         <v>267.12726025951002</v>
       </c>
-      <c r="N76" s="84">
+      <c r="N76" s="85">
         <v>1842.1832795518999</v>
       </c>
-      <c r="O76" s="83">
+      <c r="O76" s="84">
         <v>1702.61599468944</v>
       </c>
-      <c r="P76" s="84">
+      <c r="P76" s="85">
         <v>139.56648864546099</v>
       </c>
-      <c r="Q76" s="83">
+      <c r="Q76" s="84">
         <v>967.69605284298405</v>
       </c>
-      <c r="R76" s="83">
+      <c r="R76" s="84">
         <v>858.32241411698396</v>
       </c>
-      <c r="S76" s="83">
+      <c r="S76" s="84">
         <v>293.25303549799997</v>
       </c>
-      <c r="T76" s="84">
+      <c r="T76" s="85">
         <v>401.24495265899998</v>
       </c>
-      <c r="U76" s="84">
+      <c r="U76" s="85">
         <v>163.823964676684</v>
       </c>
-      <c r="V76" s="86">
+      <c r="V76" s="87">
         <v>109.3729073634</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="67"/>
-      <c r="B77" s="62" t="s">
-        <v>152</v>
+      <c r="B77" s="82" t="s">
+        <v>153</v>
       </c>
       <c r="C77" s="73">
         <v>50491.239260634</v>
@@ -6695,8 +6710,8 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="67"/>
-      <c r="B78" s="62" t="s">
-        <v>152</v>
+      <c r="B78" s="82" t="s">
+        <v>154</v>
       </c>
       <c r="C78" s="73">
         <v>195888.06400000001</v>
@@ -6761,8 +6776,8 @@
     </row>
     <row r="79" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="67"/>
-      <c r="B79" s="77" t="s">
-        <v>153</v>
+      <c r="B79" s="88" t="s">
+        <v>155</v>
       </c>
       <c r="C79" s="78">
         <v>692356.772</v>
@@ -6828,7 +6843,7 @@
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="67"/>
       <c r="B80" s="62" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C80" s="73">
         <v>624.50327833599999</v>
@@ -6894,7 +6909,7 @@
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="67"/>
       <c r="B81" s="62" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C81" s="73">
         <v>71351.936181434998</v>
@@ -6960,7 +6975,7 @@
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="67"/>
       <c r="B82" s="62" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C82" s="73">
         <v>22543.636266294001</v>
@@ -7026,7 +7041,7 @@
     <row r="83" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="67"/>
       <c r="B83" s="62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C83" s="63">
         <v>1057881.76211539</v>
@@ -7091,74 +7106,74 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="67"/>
-      <c r="B84" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="C84" s="83">
+      <c r="B84" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="84">
         <v>4115.2983032410002</v>
       </c>
-      <c r="D84" s="83">
+      <c r="D84" s="84">
         <v>849.09403414400003</v>
       </c>
-      <c r="E84" s="84">
+      <c r="E84" s="85">
         <v>2524.8089343370002</v>
       </c>
-      <c r="F84" s="84">
+      <c r="F84" s="85">
         <v>1265.6146673000001</v>
       </c>
-      <c r="G84" s="85">
+      <c r="G84" s="86">
         <v>-263.66757000000001</v>
       </c>
-      <c r="H84" s="84">
+      <c r="H84" s="85">
         <v>1299.662132658</v>
       </c>
-      <c r="I84" s="83">
+      <c r="I84" s="84">
         <v>335.26772663560001</v>
       </c>
-      <c r="J84" s="84">
+      <c r="J84" s="85">
         <v>189.52662663269999</v>
       </c>
-      <c r="K84" s="84">
+      <c r="K84" s="85">
         <v>1.1566228915349901</v>
       </c>
-      <c r="L84" s="84">
+      <c r="L84" s="85">
         <v>1.594345274942</v>
       </c>
-      <c r="M84" s="84">
+      <c r="M84" s="85">
         <v>116.05565582008001</v>
       </c>
-      <c r="N84" s="84">
+      <c r="N84" s="85">
         <v>656.06090934099996</v>
       </c>
-      <c r="O84" s="83">
+      <c r="O84" s="84">
         <v>432.42140084750002</v>
       </c>
-      <c r="P84" s="84">
+      <c r="P84" s="85">
         <v>223.6392305377</v>
       </c>
-      <c r="Q84" s="83">
+      <c r="Q84" s="84">
         <v>172.87178663365299</v>
       </c>
-      <c r="R84" s="83">
+      <c r="R84" s="84">
         <v>117.87466706724</v>
       </c>
-      <c r="S84" s="83">
+      <c r="S84" s="84">
         <v>97.8744717589</v>
       </c>
-      <c r="T84" s="84">
+      <c r="T84" s="85">
         <v>11.055823556321</v>
       </c>
-      <c r="U84" s="84">
+      <c r="U84" s="85">
         <v>8.9443717526699995</v>
       </c>
-      <c r="V84" s="86">
+      <c r="V84" s="87">
         <v>54.997119567367001</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="67"/>
-      <c r="B85" s="87" t="s">
-        <v>159</v>
+      <c r="B85" s="90" t="s">
+        <v>161</v>
       </c>
       <c r="C85" s="73">
         <v>712.37</v>
@@ -7224,7 +7239,7 @@
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="67"/>
       <c r="B86" s="62" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C86" s="73">
         <v>14719.540241389001</v>
@@ -7290,7 +7305,7 @@
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="67"/>
       <c r="B87" s="62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C87" s="73">
         <v>59732.201035783</v>
@@ -7356,7 +7371,7 @@
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="67"/>
       <c r="B88" s="62" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C88" s="73">
         <v>4333.3010000000004</v>
@@ -7422,7 +7437,7 @@
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="67"/>
       <c r="B89" s="62" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C89" s="73">
         <v>358022.77318184503</v>
@@ -7488,7 +7503,7 @@
     <row r="90" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="67"/>
       <c r="B90" s="77" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C90" s="78">
         <v>704218.954079199</v>
@@ -7554,7 +7569,7 @@
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="67"/>
       <c r="B91" s="62" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C91" s="73">
         <v>6204.5588591730002</v>
@@ -7620,7 +7635,7 @@
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="67"/>
       <c r="B92" s="62" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C92" s="73">
         <v>4973.5070175649998</v>
@@ -7686,7 +7701,7 @@
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="67"/>
       <c r="B93" s="62" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C93" s="73">
         <v>147.410998216</v>
@@ -7752,7 +7767,7 @@
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="67"/>
       <c r="B94" s="62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C94" s="73">
         <v>6376.5445295789996</v>
@@ -7818,7 +7833,7 @@
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="67"/>
       <c r="B95" s="62" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C95" s="73">
         <v>3788.7912620920001</v>
@@ -7884,7 +7899,7 @@
     <row r="96" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="67"/>
       <c r="B96" s="62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C96" s="63">
         <v>5504.7024132619999</v>
@@ -7949,74 +7964,74 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="67"/>
-      <c r="B97" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="C97" s="83">
+      <c r="B97" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" s="84">
         <v>12868.541997093</v>
       </c>
-      <c r="D97" s="83">
+      <c r="D97" s="84">
         <v>3272.5021003460001</v>
       </c>
-      <c r="E97" s="84">
+      <c r="E97" s="85">
         <v>8141.6481835340001</v>
       </c>
-      <c r="F97" s="84">
+      <c r="F97" s="85">
         <v>3290.658625392</v>
       </c>
-      <c r="G97" s="85">
+      <c r="G97" s="86">
         <v>-245.56838999999999</v>
       </c>
-      <c r="H97" s="84">
+      <c r="H97" s="85">
         <v>2019.0304741949999</v>
       </c>
-      <c r="I97" s="83">
+      <c r="I97" s="84">
         <v>395.700717798911</v>
       </c>
-      <c r="J97" s="84">
+      <c r="J97" s="85">
         <v>304.22211245789998</v>
       </c>
-      <c r="K97" s="84">
+      <c r="K97" s="85">
         <v>5.0475930165899996</v>
       </c>
-      <c r="L97" s="84">
+      <c r="L97" s="85">
         <v>10.457351998115</v>
       </c>
-      <c r="M97" s="84">
+      <c r="M97" s="85">
         <v>233.34297219338299</v>
       </c>
-      <c r="N97" s="84">
+      <c r="N97" s="85">
         <v>1070.2603219179</v>
       </c>
-      <c r="O97" s="83">
+      <c r="O97" s="84">
         <v>717.83695006790003</v>
       </c>
-      <c r="P97" s="84">
+      <c r="P97" s="85">
         <v>352.4235396222</v>
       </c>
-      <c r="Q97" s="83">
+      <c r="Q97" s="84">
         <v>1271.6267689962399</v>
       </c>
-      <c r="R97" s="83">
+      <c r="R97" s="84">
         <v>1201.9078213620401</v>
       </c>
-      <c r="S97" s="83">
+      <c r="S97" s="84">
         <v>1057.4842536707399</v>
       </c>
-      <c r="T97" s="84">
+      <c r="T97" s="85">
         <v>132.1887516834</v>
       </c>
-      <c r="U97" s="84">
+      <c r="U97" s="85">
         <v>12.23460569026</v>
       </c>
-      <c r="V97" s="86">
+      <c r="V97" s="87">
         <v>69.719462086830006</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="67"/>
       <c r="B98" s="77" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C98" s="78">
         <v>22835.330017565</v>
@@ -8080,8 +8095,8 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A99" s="88"/>
-      <c r="B99" s="89"/>
+      <c r="A99" s="91"/>
+      <c r="B99" s="92"/>
       <c r="C99" s="64"/>
       <c r="D99" s="64"/>
       <c r="E99" s="64"/>
@@ -8105,374 +8120,374 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C100" s="90"/>
-      <c r="D100" s="90"/>
-      <c r="E100" s="90"/>
-      <c r="F100" s="90"/>
-      <c r="G100" s="90"/>
-      <c r="H100" s="90"/>
-      <c r="I100" s="90"/>
-      <c r="J100" s="90"/>
-      <c r="K100" s="90"/>
-      <c r="L100" s="90"/>
-      <c r="M100" s="90"/>
-      <c r="N100" s="90"/>
-      <c r="O100" s="90"/>
-      <c r="P100" s="90"/>
-      <c r="Q100" s="90"/>
-      <c r="R100" s="90"/>
-      <c r="S100" s="90"/>
-      <c r="T100" s="90"/>
-      <c r="U100" s="90"/>
-      <c r="V100" s="90"/>
+        <v>175</v>
+      </c>
+      <c r="C100" s="93"/>
+      <c r="D100" s="93"/>
+      <c r="E100" s="93"/>
+      <c r="F100" s="93"/>
+      <c r="G100" s="93"/>
+      <c r="H100" s="93"/>
+      <c r="I100" s="93"/>
+      <c r="J100" s="93"/>
+      <c r="K100" s="93"/>
+      <c r="L100" s="93"/>
+      <c r="M100" s="93"/>
+      <c r="N100" s="93"/>
+      <c r="O100" s="93"/>
+      <c r="P100" s="93"/>
+      <c r="Q100" s="93"/>
+      <c r="R100" s="93"/>
+      <c r="S100" s="93"/>
+      <c r="T100" s="93"/>
+      <c r="U100" s="93"/>
+      <c r="V100" s="93"/>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C101" s="90"/>
-      <c r="D101" s="90"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="90"/>
-      <c r="H101" s="90"/>
-      <c r="I101" s="90"/>
-      <c r="J101" s="90"/>
-      <c r="K101" s="90"/>
-      <c r="L101" s="90"/>
-      <c r="M101" s="90"/>
-      <c r="N101" s="90"/>
-      <c r="O101" s="90"/>
-      <c r="P101" s="90"/>
-      <c r="Q101" s="90"/>
-      <c r="R101" s="90"/>
-      <c r="S101" s="90"/>
-      <c r="T101" s="90"/>
-      <c r="U101" s="90"/>
-      <c r="V101" s="90"/>
+        <v>176</v>
+      </c>
+      <c r="C101" s="93"/>
+      <c r="D101" s="93"/>
+      <c r="E101" s="93"/>
+      <c r="F101" s="93"/>
+      <c r="G101" s="93"/>
+      <c r="H101" s="93"/>
+      <c r="I101" s="93"/>
+      <c r="J101" s="93"/>
+      <c r="K101" s="93"/>
+      <c r="L101" s="93"/>
+      <c r="M101" s="93"/>
+      <c r="N101" s="93"/>
+      <c r="O101" s="93"/>
+      <c r="P101" s="93"/>
+      <c r="Q101" s="93"/>
+      <c r="R101" s="93"/>
+      <c r="S101" s="93"/>
+      <c r="T101" s="93"/>
+      <c r="U101" s="93"/>
+      <c r="V101" s="93"/>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C102" s="90"/>
-      <c r="D102" s="90"/>
-      <c r="E102" s="90"/>
-      <c r="F102" s="90"/>
-      <c r="G102" s="90"/>
-      <c r="H102" s="90"/>
-      <c r="I102" s="90"/>
-      <c r="J102" s="90"/>
-      <c r="K102" s="90"/>
-      <c r="L102" s="90"/>
-      <c r="M102" s="90"/>
-      <c r="N102" s="90"/>
-      <c r="O102" s="90"/>
-      <c r="P102" s="90"/>
-      <c r="Q102" s="90"/>
-      <c r="R102" s="90"/>
-      <c r="S102" s="90"/>
-      <c r="T102" s="90"/>
-      <c r="U102" s="90"/>
-      <c r="V102" s="90"/>
+        <v>177</v>
+      </c>
+      <c r="C102" s="93"/>
+      <c r="D102" s="93"/>
+      <c r="E102" s="93"/>
+      <c r="F102" s="93"/>
+      <c r="G102" s="93"/>
+      <c r="H102" s="93"/>
+      <c r="I102" s="93"/>
+      <c r="J102" s="93"/>
+      <c r="K102" s="93"/>
+      <c r="L102" s="93"/>
+      <c r="M102" s="93"/>
+      <c r="N102" s="93"/>
+      <c r="O102" s="93"/>
+      <c r="P102" s="93"/>
+      <c r="Q102" s="93"/>
+      <c r="R102" s="93"/>
+      <c r="S102" s="93"/>
+      <c r="T102" s="93"/>
+      <c r="U102" s="93"/>
+      <c r="V102" s="93"/>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C103" s="90"/>
-      <c r="D103" s="90"/>
-      <c r="E103" s="90"/>
-      <c r="F103" s="90"/>
-      <c r="G103" s="90"/>
-      <c r="H103" s="90"/>
-      <c r="I103" s="90"/>
-      <c r="J103" s="90"/>
-      <c r="K103" s="90"/>
-      <c r="L103" s="90"/>
-      <c r="M103" s="90"/>
-      <c r="N103" s="90"/>
-      <c r="O103" s="90"/>
-      <c r="P103" s="90"/>
-      <c r="Q103" s="90"/>
-      <c r="R103" s="90"/>
-      <c r="S103" s="90"/>
-      <c r="T103" s="90"/>
-      <c r="U103" s="90"/>
-      <c r="V103" s="90"/>
+        <v>178</v>
+      </c>
+      <c r="C103" s="93"/>
+      <c r="D103" s="93"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="93"/>
+      <c r="G103" s="93"/>
+      <c r="H103" s="93"/>
+      <c r="I103" s="93"/>
+      <c r="J103" s="93"/>
+      <c r="K103" s="93"/>
+      <c r="L103" s="93"/>
+      <c r="M103" s="93"/>
+      <c r="N103" s="93"/>
+      <c r="O103" s="93"/>
+      <c r="P103" s="93"/>
+      <c r="Q103" s="93"/>
+      <c r="R103" s="93"/>
+      <c r="S103" s="93"/>
+      <c r="T103" s="93"/>
+      <c r="U103" s="93"/>
+      <c r="V103" s="93"/>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C104" s="90"/>
-      <c r="D104" s="90"/>
-      <c r="E104" s="90"/>
-      <c r="F104" s="90"/>
-      <c r="G104" s="90"/>
-      <c r="H104" s="90"/>
-      <c r="I104" s="90"/>
-      <c r="J104" s="90"/>
-      <c r="K104" s="90"/>
-      <c r="L104" s="90"/>
-      <c r="M104" s="90"/>
-      <c r="N104" s="90"/>
-      <c r="O104" s="90"/>
-      <c r="P104" s="90"/>
-      <c r="Q104" s="90"/>
-      <c r="R104" s="90"/>
-      <c r="S104" s="90"/>
-      <c r="T104" s="90"/>
-      <c r="U104" s="90"/>
-      <c r="V104" s="90"/>
+        <v>179</v>
+      </c>
+      <c r="C104" s="93"/>
+      <c r="D104" s="93"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="93"/>
+      <c r="G104" s="93"/>
+      <c r="H104" s="93"/>
+      <c r="I104" s="93"/>
+      <c r="J104" s="93"/>
+      <c r="K104" s="93"/>
+      <c r="L104" s="93"/>
+      <c r="M104" s="93"/>
+      <c r="N104" s="93"/>
+      <c r="O104" s="93"/>
+      <c r="P104" s="93"/>
+      <c r="Q104" s="93"/>
+      <c r="R104" s="93"/>
+      <c r="S104" s="93"/>
+      <c r="T104" s="93"/>
+      <c r="U104" s="93"/>
+      <c r="V104" s="93"/>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C105" s="90"/>
-      <c r="D105" s="90"/>
-      <c r="E105" s="90"/>
-      <c r="F105" s="90"/>
-      <c r="G105" s="90"/>
-      <c r="H105" s="90"/>
-      <c r="I105" s="90"/>
-      <c r="J105" s="90"/>
-      <c r="K105" s="90"/>
-      <c r="L105" s="90"/>
-      <c r="M105" s="90"/>
-      <c r="N105" s="90"/>
-      <c r="O105" s="90"/>
-      <c r="P105" s="90"/>
-      <c r="Q105" s="90"/>
-      <c r="R105" s="90"/>
-      <c r="S105" s="90"/>
-      <c r="T105" s="90"/>
-      <c r="U105" s="90"/>
-      <c r="V105" s="90"/>
+      <c r="C105" s="93"/>
+      <c r="D105" s="93"/>
+      <c r="E105" s="93"/>
+      <c r="F105" s="93"/>
+      <c r="G105" s="93"/>
+      <c r="H105" s="93"/>
+      <c r="I105" s="93"/>
+      <c r="J105" s="93"/>
+      <c r="K105" s="93"/>
+      <c r="L105" s="93"/>
+      <c r="M105" s="93"/>
+      <c r="N105" s="93"/>
+      <c r="O105" s="93"/>
+      <c r="P105" s="93"/>
+      <c r="Q105" s="93"/>
+      <c r="R105" s="93"/>
+      <c r="S105" s="93"/>
+      <c r="T105" s="93"/>
+      <c r="U105" s="93"/>
+      <c r="V105" s="93"/>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C106" s="90"/>
-      <c r="D106" s="90"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
-      <c r="G106" s="90"/>
-      <c r="H106" s="90"/>
-      <c r="I106" s="90"/>
-      <c r="J106" s="90"/>
-      <c r="K106" s="90"/>
-      <c r="L106" s="90"/>
-      <c r="M106" s="90"/>
-      <c r="N106" s="90"/>
-      <c r="O106" s="90"/>
-      <c r="P106" s="90"/>
-      <c r="Q106" s="90"/>
-      <c r="R106" s="90"/>
-      <c r="S106" s="90"/>
-      <c r="T106" s="90"/>
-      <c r="U106" s="90"/>
-      <c r="V106" s="90"/>
+      <c r="C106" s="93"/>
+      <c r="D106" s="93"/>
+      <c r="E106" s="93"/>
+      <c r="F106" s="93"/>
+      <c r="G106" s="93"/>
+      <c r="H106" s="93"/>
+      <c r="I106" s="93"/>
+      <c r="J106" s="93"/>
+      <c r="K106" s="93"/>
+      <c r="L106" s="93"/>
+      <c r="M106" s="93"/>
+      <c r="N106" s="93"/>
+      <c r="O106" s="93"/>
+      <c r="P106" s="93"/>
+      <c r="Q106" s="93"/>
+      <c r="R106" s="93"/>
+      <c r="S106" s="93"/>
+      <c r="T106" s="93"/>
+      <c r="U106" s="93"/>
+      <c r="V106" s="93"/>
     </row>
     <row r="107" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="C107" s="90"/>
-      <c r="D107" s="90"/>
-      <c r="E107" s="90"/>
-      <c r="F107" s="90"/>
-      <c r="G107" s="90"/>
-      <c r="H107" s="90"/>
-      <c r="I107" s="90"/>
-      <c r="J107" s="90"/>
-      <c r="K107" s="90"/>
-      <c r="L107" s="90"/>
-      <c r="M107" s="90"/>
-      <c r="N107" s="90"/>
-      <c r="O107" s="90"/>
-      <c r="P107" s="90"/>
-      <c r="Q107" s="90"/>
-      <c r="R107" s="90"/>
-      <c r="S107" s="90"/>
-      <c r="T107" s="90"/>
-      <c r="U107" s="90"/>
-      <c r="V107" s="90"/>
+      <c r="B107" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" s="93"/>
+      <c r="D107" s="93"/>
+      <c r="E107" s="93"/>
+      <c r="F107" s="93"/>
+      <c r="G107" s="93"/>
+      <c r="H107" s="93"/>
+      <c r="I107" s="93"/>
+      <c r="J107" s="93"/>
+      <c r="K107" s="93"/>
+      <c r="L107" s="93"/>
+      <c r="M107" s="93"/>
+      <c r="N107" s="93"/>
+      <c r="O107" s="93"/>
+      <c r="P107" s="93"/>
+      <c r="Q107" s="93"/>
+      <c r="R107" s="93"/>
+      <c r="S107" s="93"/>
+      <c r="T107" s="93"/>
+      <c r="U107" s="93"/>
+      <c r="V107" s="93"/>
     </row>
     <row r="108" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="91"/>
-      <c r="C108" s="90"/>
-      <c r="D108" s="90"/>
-      <c r="E108" s="90"/>
-      <c r="F108" s="90"/>
-      <c r="G108" s="90"/>
-      <c r="H108" s="90"/>
-      <c r="I108" s="90"/>
-      <c r="J108" s="90"/>
-      <c r="K108" s="90"/>
-      <c r="L108" s="90"/>
-      <c r="M108" s="90"/>
-      <c r="N108" s="90"/>
-      <c r="O108" s="90"/>
-      <c r="P108" s="90"/>
-      <c r="Q108" s="90"/>
-      <c r="R108" s="90"/>
-      <c r="S108" s="90"/>
-      <c r="T108" s="90"/>
-      <c r="U108" s="90"/>
-      <c r="V108" s="90"/>
+      <c r="B108" s="94"/>
+      <c r="C108" s="93"/>
+      <c r="D108" s="93"/>
+      <c r="E108" s="93"/>
+      <c r="F108" s="93"/>
+      <c r="G108" s="93"/>
+      <c r="H108" s="93"/>
+      <c r="I108" s="93"/>
+      <c r="J108" s="93"/>
+      <c r="K108" s="93"/>
+      <c r="L108" s="93"/>
+      <c r="M108" s="93"/>
+      <c r="N108" s="93"/>
+      <c r="O108" s="93"/>
+      <c r="P108" s="93"/>
+      <c r="Q108" s="93"/>
+      <c r="R108" s="93"/>
+      <c r="S108" s="93"/>
+      <c r="T108" s="93"/>
+      <c r="U108" s="93"/>
+      <c r="V108" s="93"/>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C109" s="90"/>
-      <c r="D109" s="90"/>
-      <c r="E109" s="90"/>
-      <c r="F109" s="90"/>
-      <c r="G109" s="90"/>
-      <c r="H109" s="90"/>
-      <c r="I109" s="90"/>
-      <c r="J109" s="90"/>
-      <c r="K109" s="90"/>
-      <c r="L109" s="90"/>
-      <c r="M109" s="90"/>
-      <c r="N109" s="90"/>
-      <c r="O109" s="90"/>
-      <c r="P109" s="90"/>
-      <c r="Q109" s="90"/>
-      <c r="R109" s="90"/>
-      <c r="S109" s="90"/>
-      <c r="T109" s="90"/>
-      <c r="U109" s="90"/>
-      <c r="V109" s="90"/>
+        <v>182</v>
+      </c>
+      <c r="C109" s="93"/>
+      <c r="D109" s="93"/>
+      <c r="E109" s="93"/>
+      <c r="F109" s="93"/>
+      <c r="G109" s="93"/>
+      <c r="H109" s="93"/>
+      <c r="I109" s="93"/>
+      <c r="J109" s="93"/>
+      <c r="K109" s="93"/>
+      <c r="L109" s="93"/>
+      <c r="M109" s="93"/>
+      <c r="N109" s="93"/>
+      <c r="O109" s="93"/>
+      <c r="P109" s="93"/>
+      <c r="Q109" s="93"/>
+      <c r="R109" s="93"/>
+      <c r="S109" s="93"/>
+      <c r="T109" s="93"/>
+      <c r="U109" s="93"/>
+      <c r="V109" s="93"/>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C110" s="93"/>
+      <c r="D110" s="93"/>
+      <c r="E110" s="93"/>
+      <c r="F110" s="93"/>
+      <c r="G110" s="93"/>
+      <c r="H110" s="93"/>
+      <c r="I110" s="93"/>
+      <c r="J110" s="93"/>
+      <c r="K110" s="93"/>
+      <c r="L110" s="93"/>
+      <c r="M110" s="93"/>
+      <c r="N110" s="93"/>
+      <c r="O110" s="93"/>
+      <c r="P110" s="93"/>
+      <c r="Q110" s="93"/>
+      <c r="R110" s="93"/>
+      <c r="S110" s="93"/>
+      <c r="T110" s="93"/>
+      <c r="U110" s="93"/>
+      <c r="V110" s="93"/>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B111" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" s="93"/>
+      <c r="D111" s="93"/>
+      <c r="E111" s="93"/>
+      <c r="F111" s="93"/>
+      <c r="G111" s="93"/>
+      <c r="H111" s="93"/>
+      <c r="I111" s="93"/>
+      <c r="J111" s="93"/>
+      <c r="K111" s="93"/>
+      <c r="L111" s="93"/>
+      <c r="M111" s="93"/>
+      <c r="N111" s="93"/>
+      <c r="O111" s="93"/>
+      <c r="P111" s="93"/>
+      <c r="Q111" s="93"/>
+      <c r="R111" s="93"/>
+      <c r="S111" s="93"/>
+      <c r="T111" s="93"/>
+      <c r="U111" s="93"/>
+      <c r="V111" s="93"/>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B112" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="C110" s="90"/>
-      <c r="D110" s="90"/>
-      <c r="E110" s="90"/>
-      <c r="F110" s="90"/>
-      <c r="G110" s="90"/>
-      <c r="H110" s="90"/>
-      <c r="I110" s="90"/>
-      <c r="J110" s="90"/>
-      <c r="K110" s="90"/>
-      <c r="L110" s="90"/>
-      <c r="M110" s="90"/>
-      <c r="N110" s="90"/>
-      <c r="O110" s="90"/>
-      <c r="P110" s="90"/>
-      <c r="Q110" s="90"/>
-      <c r="R110" s="90"/>
-      <c r="S110" s="90"/>
-      <c r="T110" s="90"/>
-      <c r="U110" s="90"/>
-      <c r="V110" s="90"/>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B111" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="C111" s="90"/>
-      <c r="D111" s="90"/>
-      <c r="E111" s="90"/>
-      <c r="F111" s="90"/>
-      <c r="G111" s="90"/>
-      <c r="H111" s="90"/>
-      <c r="I111" s="90"/>
-      <c r="J111" s="90"/>
-      <c r="K111" s="90"/>
-      <c r="L111" s="90"/>
-      <c r="M111" s="90"/>
-      <c r="N111" s="90"/>
-      <c r="O111" s="90"/>
-      <c r="P111" s="90"/>
-      <c r="Q111" s="90"/>
-      <c r="R111" s="90"/>
-      <c r="S111" s="90"/>
-      <c r="T111" s="90"/>
-      <c r="U111" s="90"/>
-      <c r="V111" s="90"/>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B112" s="92" t="s">
-        <v>179</v>
-      </c>
-      <c r="C112" s="90"/>
-      <c r="D112" s="90"/>
-      <c r="E112" s="90"/>
-      <c r="F112" s="90"/>
-      <c r="G112" s="90"/>
-      <c r="H112" s="90"/>
-      <c r="I112" s="90"/>
-      <c r="J112" s="90"/>
-      <c r="K112" s="90"/>
-      <c r="L112" s="90"/>
-      <c r="M112" s="90"/>
-      <c r="N112" s="90"/>
-      <c r="O112" s="90"/>
-      <c r="P112" s="90"/>
-      <c r="Q112" s="90"/>
-      <c r="R112" s="90"/>
-      <c r="S112" s="90"/>
-      <c r="T112" s="90"/>
-      <c r="U112" s="90"/>
-      <c r="V112" s="90"/>
+      <c r="C112" s="93"/>
+      <c r="D112" s="93"/>
+      <c r="E112" s="93"/>
+      <c r="F112" s="93"/>
+      <c r="G112" s="93"/>
+      <c r="H112" s="93"/>
+      <c r="I112" s="93"/>
+      <c r="J112" s="93"/>
+      <c r="K112" s="93"/>
+      <c r="L112" s="93"/>
+      <c r="M112" s="93"/>
+      <c r="N112" s="93"/>
+      <c r="O112" s="93"/>
+      <c r="P112" s="93"/>
+      <c r="Q112" s="93"/>
+      <c r="R112" s="93"/>
+      <c r="S112" s="93"/>
+      <c r="T112" s="93"/>
+      <c r="U112" s="93"/>
+      <c r="V112" s="93"/>
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
-      <c r="C113" s="90"/>
-      <c r="D113" s="90"/>
-      <c r="E113" s="90"/>
-      <c r="F113" s="90"/>
-      <c r="G113" s="90"/>
-      <c r="H113" s="90"/>
-      <c r="I113" s="90"/>
-      <c r="J113" s="90"/>
-      <c r="K113" s="90"/>
-      <c r="L113" s="90"/>
-      <c r="M113" s="90"/>
-      <c r="N113" s="90"/>
-      <c r="O113" s="90"/>
-      <c r="P113" s="90"/>
-      <c r="Q113" s="90"/>
-      <c r="R113" s="90"/>
-      <c r="S113" s="90"/>
-      <c r="T113" s="90"/>
-      <c r="U113" s="90"/>
-      <c r="V113" s="90"/>
+      <c r="C113" s="93"/>
+      <c r="D113" s="93"/>
+      <c r="E113" s="93"/>
+      <c r="F113" s="93"/>
+      <c r="G113" s="93"/>
+      <c r="H113" s="93"/>
+      <c r="I113" s="93"/>
+      <c r="J113" s="93"/>
+      <c r="K113" s="93"/>
+      <c r="L113" s="93"/>
+      <c r="M113" s="93"/>
+      <c r="N113" s="93"/>
+      <c r="O113" s="93"/>
+      <c r="P113" s="93"/>
+      <c r="Q113" s="93"/>
+      <c r="R113" s="93"/>
+      <c r="S113" s="93"/>
+      <c r="T113" s="93"/>
+      <c r="U113" s="93"/>
+      <c r="V113" s="93"/>
     </row>
     <row r="114" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="90"/>
-      <c r="D114" s="90"/>
-      <c r="E114" s="90"/>
-      <c r="F114" s="90"/>
-      <c r="G114" s="90"/>
-      <c r="H114" s="90"/>
-      <c r="I114" s="90"/>
-      <c r="J114" s="90"/>
-      <c r="K114" s="90"/>
-      <c r="L114" s="90"/>
-      <c r="M114" s="90"/>
-      <c r="N114" s="90"/>
-      <c r="O114" s="90"/>
-      <c r="P114" s="90"/>
-      <c r="Q114" s="90"/>
-      <c r="R114" s="90"/>
-      <c r="S114" s="90"/>
-      <c r="T114" s="90"/>
-      <c r="U114" s="90"/>
-      <c r="V114" s="90"/>
+      <c r="C114" s="93"/>
+      <c r="D114" s="93"/>
+      <c r="E114" s="93"/>
+      <c r="F114" s="93"/>
+      <c r="G114" s="93"/>
+      <c r="H114" s="93"/>
+      <c r="I114" s="93"/>
+      <c r="J114" s="93"/>
+      <c r="K114" s="93"/>
+      <c r="L114" s="93"/>
+      <c r="M114" s="93"/>
+      <c r="N114" s="93"/>
+      <c r="O114" s="93"/>
+      <c r="P114" s="93"/>
+      <c r="Q114" s="93"/>
+      <c r="R114" s="93"/>
+      <c r="S114" s="93"/>
+      <c r="T114" s="93"/>
+      <c r="U114" s="93"/>
+      <c r="V114" s="93"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{695331EF-7F77-43E7-B075-EFF31B15531A}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E91CA662-B53C-4E6A-932C-2EDAEF394B46}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{59EA9013-6ED4-4E97-8FE3-F4CDC77F1D09}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{CE12F45C-6633-4EA4-A12A-C2D9CDD3FCB9}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{25C8A2D2-7938-49A3-9E48-6B8E3D0CF3FF}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{76C8A4FA-4446-48BB-8774-354D3A58B202}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A5929ABC-2B3F-427E-B3F0-3CD1FD017BDC}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{891327D7-6302-4B9E-A883-8634E29166FA}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{BCDFFD39-B603-410E-89D0-8A8D15B3DF43}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{BB660EF6-CC79-4998-817D-940E1D6EDFBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
